--- a/MIC7001/说明书/MIC2818端口说明.V5.2003.1.xlsx
+++ b/MIC7001/说明书/MIC2818端口说明.V5.2003.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="14100"/>
+    <workbookView windowWidth="28785" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="按端子号排序" sheetId="1" r:id="rId1"/>
@@ -1316,9 +1316,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1382,71 +1382,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,14 +1405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1489,8 +1425,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1505,22 +1519,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,13 +1584,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,25 +1674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,31 +1704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1716,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,67 +1764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,26 +1874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,40 +1900,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1966,6 +1933,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1976,152 +1976,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2238,7 +2238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5290,8 +5289,8 @@
   <sheetPr/>
   <dimension ref="B2:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5885,7 +5884,7 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="52" t="s">
+      <c r="V16" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5938,8 +5937,8 @@
         <v>92</v>
       </c>
       <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
@@ -6123,8 +6122,8 @@
         <v>120</v>
       </c>
       <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -6153,10 +6152,10 @@
       <c r="C25" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="40" t="s">
         <v>124</v>
       </c>
@@ -6192,7 +6191,7 @@
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="51" t="s">
         <v>87</v>
       </c>
       <c r="M26" s="40" t="s">
@@ -6250,7 +6249,7 @@
       <c r="S27" s="40"/>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
-      <c r="V27" s="52" t="s">
+      <c r="V27" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6590,7 +6589,7 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="51" t="s">
         <v>87</v>
       </c>
       <c r="M38" s="40" t="s">
@@ -6615,37 +6614,37 @@
       <c r="V38" s="40"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="42"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" s="35" customFormat="1" spans="3:11">
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" s="35" customFormat="1" spans="3:11">
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="46"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="35" t="s">
@@ -6653,25 +6652,25 @@
       </c>
     </row>
     <row r="54" s="35" customFormat="1" spans="7:8">
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="H54" s="48"/>
+      <c r="H54" s="47"/>
     </row>
     <row r="55" s="35" customFormat="1" spans="7:23">
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="50"/>
-      <c r="R55" s="49" t="s">
+      <c r="H55" s="49"/>
+      <c r="R55" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="S55" s="50"/>
-      <c r="U55" s="49" t="s">
+      <c r="S55" s="49"/>
+      <c r="U55" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="V55" s="53"/>
-      <c r="W55" s="50"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="49"/>
     </row>
     <row r="56" s="35" customFormat="1" spans="7:23">
       <c r="G56" s="37" t="s">
@@ -6691,13 +6690,13 @@
       </c>
     </row>
     <row r="57" s="35" customFormat="1" spans="7:23">
-      <c r="G57" s="51">
+      <c r="G57" s="50">
         <v>1</v>
       </c>
       <c r="H57" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="R57" s="51">
+      <c r="R57" s="50">
         <v>1</v>
       </c>
       <c r="S57" s="40" t="s">
@@ -6708,13 +6707,13 @@
       <c r="W57" s="40"/>
     </row>
     <row r="58" s="35" customFormat="1" spans="7:23">
-      <c r="G58" s="51">
+      <c r="G58" s="50">
         <v>2</v>
       </c>
       <c r="H58" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="R58" s="51">
+      <c r="R58" s="50">
         <v>2</v>
       </c>
       <c r="S58" s="40" t="s">
@@ -6725,34 +6724,34 @@
       <c r="W58" s="40"/>
     </row>
     <row r="59" s="35" customFormat="1" spans="7:23">
-      <c r="G59" s="51">
+      <c r="G59" s="50">
         <v>3</v>
       </c>
       <c r="H59" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="R59" s="51">
+      <c r="R59" s="50">
         <v>3</v>
       </c>
-      <c r="S59" s="54" t="s">
+      <c r="S59" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="U59" s="55" t="s">
+      <c r="U59" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="V59" s="54"/>
-      <c r="W59" s="55" t="s">
+      <c r="V59" s="53"/>
+      <c r="W59" s="54" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="60" s="35" customFormat="1" spans="7:23">
-      <c r="G60" s="51">
+      <c r="G60" s="50">
         <v>4</v>
       </c>
       <c r="H60" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="R60" s="51">
+      <c r="R60" s="50">
         <v>4</v>
       </c>
       <c r="S60" s="40" t="s">
@@ -6763,34 +6762,34 @@
       <c r="W60" s="40"/>
     </row>
     <row r="61" s="35" customFormat="1" spans="7:23">
-      <c r="G61" s="51">
+      <c r="G61" s="50">
         <v>5</v>
       </c>
       <c r="H61" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="R61" s="51">
+      <c r="R61" s="50">
         <v>5</v>
       </c>
-      <c r="S61" s="56" t="s">
+      <c r="S61" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="U61" s="57" t="s">
+      <c r="U61" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="V61" s="56"/>
-      <c r="W61" s="57" t="s">
+      <c r="V61" s="55"/>
+      <c r="W61" s="56" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="62" s="35" customFormat="1" spans="7:23">
-      <c r="G62" s="51">
+      <c r="G62" s="50">
         <v>6</v>
       </c>
       <c r="H62" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="R62" s="51">
+      <c r="R62" s="50">
         <v>6</v>
       </c>
       <c r="S62" s="40" t="s">
@@ -6801,44 +6800,44 @@
       <c r="W62" s="40"/>
     </row>
     <row r="63" s="35" customFormat="1" spans="7:23">
-      <c r="G63" s="51">
+      <c r="G63" s="50">
         <v>7</v>
       </c>
       <c r="H63" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="R63" s="51">
+      <c r="R63" s="50">
         <v>7</v>
       </c>
-      <c r="S63" s="58" t="s">
+      <c r="S63" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="U63" s="59" t="s">
+      <c r="U63" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="V63" s="58"/>
-      <c r="W63" s="59" t="s">
+      <c r="V63" s="57"/>
+      <c r="W63" s="58" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="64" spans="7:23">
-      <c r="G64" s="51">
+      <c r="G64" s="50">
         <v>8</v>
       </c>
       <c r="H64" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="R64" s="51">
+      <c r="R64" s="50">
         <v>8</v>
       </c>
-      <c r="S64" s="60" t="s">
+      <c r="S64" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="U64" s="61" t="s">
+      <c r="U64" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="V64" s="60"/>
-      <c r="W64" s="61" t="s">
+      <c r="V64" s="59"/>
+      <c r="W64" s="60" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6867,8 +6866,8 @@
   <sheetPr/>
   <dimension ref="B1:AE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7719,16 +7718,16 @@
         <v>232</v>
       </c>
       <c r="C21" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -7744,10 +7743,10 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
       <c r="S21" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T21" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -7780,10 +7779,10 @@
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
       <c r="S22" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
